--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>構築</t>
   </si>
@@ -631,6 +631,18 @@
     <t>telephone_number</t>
   </si>
   <si>
+    <t>Eメールアドレス</t>
+  </si>
+  <si>
+    <t>mail_address</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>更新日時</t>
   </si>
   <si>
@@ -852,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -882,8 +894,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,9 +917,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,29 +955,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,7 +985,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -972,31 +1000,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,7 +1009,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,6 +1020,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1051,24 +1063,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1081,7 +1075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,43 +1105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,19 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,13 +1207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,13 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,15 +1384,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1392,6 +1395,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,17 +1432,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,22 +1458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,25 +1489,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,118 +1516,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11149,10 +11161,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11171,10 +11183,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>147</v>
@@ -11198,7 +11210,7 @@
         <v>135</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>147</v>
@@ -11207,10 +11219,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>147</v>
@@ -11219,24 +11231,24 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>147</v>
@@ -11245,13 +11257,13 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -11483,10 +11495,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11505,10 +11517,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>147</v>
@@ -11517,16 +11529,16 @@
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -12196,7 +12208,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12299,44 +12311,56 @@
         <v>159</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5">
@@ -12521,7 +12545,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D9 D10 D6:D7 D11:D13 D14:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D9 D10 D11 D12 D6:D7 D13:D15 D16:D33 D34:D45">
       <formula1>"INT,DATE,VARCHAR,IMAGE,BOOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12549,10 +12573,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -12574,7 +12598,7 @@
         <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>147</v>
@@ -12585,10 +12609,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>151</v>
@@ -12597,10 +12621,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>147</v>
@@ -12609,10 +12633,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>147</v>
@@ -12621,10 +12645,10 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>147</v>
@@ -12633,10 +12657,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>147</v>
@@ -12645,10 +12669,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>151</v>
@@ -12657,10 +12681,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>151</v>
@@ -12669,10 +12693,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>151</v>
@@ -12681,10 +12705,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>147</v>
@@ -12693,10 +12717,10 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>147</v>
@@ -12705,109 +12729,109 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -12961,10 +12985,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -12986,7 +13010,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>147</v>
@@ -13000,7 +13024,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>151</v>
@@ -13009,37 +13033,37 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -13283,10 +13307,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -13305,10 +13329,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>147</v>
@@ -13334,7 +13358,7 @@
         <v>135</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>147</v>
@@ -13343,37 +13367,37 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -13611,10 +13635,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -13648,7 +13672,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>147</v>
@@ -13657,10 +13681,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>147</v>
@@ -13669,37 +13693,37 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -13937,10 +13961,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -13974,7 +13998,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>147</v>
@@ -13983,10 +14007,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>147</v>
@@ -13995,16 +14019,16 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="2:5">

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12945" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="12945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -865,8 +865,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -886,6 +886,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -894,16 +923,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,14 +962,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,23 +976,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,30 +1001,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,15 +1029,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,7 +1057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1093,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1195,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,157 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1391,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1410,9 +1431,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,26 +1457,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,149 +1495,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,13 +1677,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,13 +1698,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -10131,13 +10143,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
@@ -10154,13 +10166,13 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15">
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -10178,13 +10190,13 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -10202,13 +10214,13 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -10226,13 +10238,13 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>5</v>
       </c>
       <c r="H5" t="s">
@@ -10250,13 +10262,13 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>5</v>
       </c>
       <c r="K6">
@@ -10265,18 +10277,18 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="13">
+      <c r="E8" s="15">
         <f>SUM(E2:E7)</f>
         <v>53</v>
       </c>
@@ -10293,84 +10305,84 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f>SUM(E15:E16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="15">
         <v>5</v>
       </c>
       <c r="F22" t="s">
@@ -10378,17 +10390,17 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="15">
         <v>5</v>
       </c>
       <c r="F23" t="s">
@@ -10396,17 +10408,17 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="15">
         <v>5</v>
       </c>
       <c r="F24" t="s">
@@ -10414,15 +10426,15 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="15">
         <v>25</v>
       </c>
       <c r="F25" t="s">
@@ -10430,34 +10442,34 @@
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="13">
+      <c r="E26" s="15">
         <f>SUM(E21:E25)</f>
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="13">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="15">
         <v>5</v>
       </c>
       <c r="F31" t="s">
@@ -10465,17 +10477,17 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="15">
         <v>5</v>
       </c>
       <c r="F32" t="s">
@@ -10483,34 +10495,34 @@
       </c>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="13">
+      <c r="E33" s="15">
         <f>SUM(E30:E32)</f>
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="13">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="15">
         <v>5</v>
       </c>
       <c r="F38" t="s">
@@ -10518,17 +10530,17 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="15">
         <v>5</v>
       </c>
       <c r="F39" t="s">
@@ -10536,17 +10548,17 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="15">
         <v>4</v>
       </c>
       <c r="F40" t="s">
@@ -10554,34 +10566,34 @@
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="13">
+      <c r="E41" s="15">
         <f>SUM(E37:E40)</f>
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="13">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="15">
         <v>5</v>
       </c>
       <c r="F46" t="s">
@@ -10589,17 +10601,17 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="15">
         <v>4</v>
       </c>
       <c r="F47" t="s">
@@ -10607,17 +10619,17 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="15">
         <v>4</v>
       </c>
       <c r="F48" t="s">
@@ -10625,36 +10637,36 @@
       </c>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="13">
+      <c r="E49" s="15">
         <f>SUM(E45:E48)</f>
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="15">
         <v>20</v>
       </c>
       <c r="F54" t="s">
@@ -10662,17 +10674,17 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="15">
         <v>5</v>
       </c>
       <c r="F55" t="s">
@@ -10680,34 +10692,34 @@
       </c>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="13">
+      <c r="E56" s="15">
         <f>SUM(E53:E55)</f>
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="13">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="24">
         <v>5</v>
       </c>
       <c r="F61" t="s">
@@ -10715,36 +10727,36 @@
       </c>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="13">
+      <c r="E62" s="15">
         <f>SUM(E60:E61)</f>
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="15">
         <v>5</v>
       </c>
       <c r="F67" t="s">
@@ -10752,52 +10764,52 @@
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="13">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="15">
         <f>SUM(E66:E67)</f>
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="13">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="15">
         <v>4</v>
       </c>
       <c r="F73" t="s">
@@ -10805,45 +10817,45 @@
       </c>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="13">
+      <c r="E74" s="15">
         <f>SUM(E72:E73)</f>
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="13"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="15">
         <v>5</v>
       </c>
       <c r="F80" t="s">
@@ -10851,58 +10863,58 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="13">
+      <c r="D81" s="19"/>
+      <c r="E81" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="13">
+      <c r="E82" s="15">
         <f>SUM(E78:E80)</f>
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18" t="s">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="13">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="13">
+      <c r="D88" s="20"/>
+      <c r="E88" s="15">
         <v>5</v>
       </c>
       <c r="F88" t="s">
@@ -10910,28 +10922,28 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="13">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="15">
         <v>5</v>
       </c>
       <c r="F90" t="s">
@@ -10939,15 +10951,15 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="13">
+      <c r="D91" s="20"/>
+      <c r="E91" s="15">
         <v>4</v>
       </c>
       <c r="F91" t="s">
@@ -10955,15 +10967,15 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18" t="s">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="13">
+      <c r="D92" s="20"/>
+      <c r="E92" s="15">
         <v>4</v>
       </c>
       <c r="F92" t="s">
@@ -10971,28 +10983,28 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18" t="s">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="13">
+      <c r="D94" s="20"/>
+      <c r="E94" s="15">
         <v>4</v>
       </c>
       <c r="F94" t="s">
@@ -11000,28 +11012,28 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18" t="s">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="13">
+      <c r="D96" s="20"/>
+      <c r="E96" s="15">
         <v>4</v>
       </c>
       <c r="F96" t="s">
@@ -11029,15 +11041,15 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18" t="s">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="13">
+      <c r="D97" s="20"/>
+      <c r="E97" s="15">
         <v>4</v>
       </c>
       <c r="F97" t="s">
@@ -11045,28 +11057,28 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18" t="s">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="24">
+      <c r="D99" s="20"/>
+      <c r="E99" s="26">
         <v>5</v>
       </c>
       <c r="F99" t="s">
@@ -11074,15 +11086,15 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18" t="s">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="24">
+      <c r="D100" s="20"/>
+      <c r="E100" s="26">
         <v>4</v>
       </c>
       <c r="F100" t="s">
@@ -11090,33 +11102,33 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="24"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="24"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18" t="s">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="24">
+      <c r="D103" s="20"/>
+      <c r="E103" s="26">
         <v>4</v>
       </c>
       <c r="F103" t="s">
@@ -11124,7 +11136,7 @@
       </c>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="13">
+      <c r="E104" s="15">
         <f>SUM(E86:E103)</f>
         <v>99</v>
       </c>
@@ -11819,8 +11831,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11856,183 +11868,183 @@
         <v>113</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:4">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="15" t="str">
         <f>画面API構成!B22</f>
         <v>購入履歴取得API</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="15" t="str">
         <f>画面API構成!C22</f>
         <v>購入履歴の一覧API</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:4">
-      <c r="A4" s="13" t="str">
+      <c r="A4" s="15" t="str">
         <f>画面API構成!B23</f>
         <v>商品閲覧履歴取得API</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="15" t="str">
         <f>画面API構成!C23</f>
         <v>商品閲覧履歴の一覧API</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" ht="126" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="str">
+      <c r="A5" s="15" t="str">
         <f>画面API構成!B24</f>
         <v>カート一覧取得API</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="15" t="str">
         <f>画面API構成!C24</f>
         <v>カートの一覧API</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:4">
-      <c r="A6" s="13" t="str">
+      <c r="A6" s="15" t="str">
         <f>画面API構成!B31</f>
         <v>商品一覧取得API</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="15" t="str">
         <f>画面API構成!C31</f>
         <v>商品一覧情報を取得するAPI</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:4">
-      <c r="A7" s="13" t="str">
+      <c r="A7" s="15" t="str">
         <f>画面API構成!B32</f>
         <v>カテゴリー一覧取得API</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="15" t="str">
         <f>画面API構成!C32</f>
         <v>カテゴリー一覧を取得するAPI</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" ht="256.5" spans="1:4">
-      <c r="A8" s="13" t="str">
+      <c r="A8" s="15" t="str">
         <f>画面API構成!B38</f>
         <v>商品詳細API</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="15" t="str">
         <f>画面API構成!C38</f>
         <v>商品詳細情報を取得するAPI</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" ht="59" customHeight="1" spans="1:4">
-      <c r="A9" s="13" t="str">
+      <c r="A9" s="15" t="str">
         <f>画面API構成!B39</f>
         <v>商品閲覧履歴追加API</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="15" t="str">
         <f>画面API構成!C39</f>
         <v>商品閲覧履歴追加を行うAPI</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:4">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="15" t="str">
         <f>画面API構成!B40</f>
         <v>カート追加API</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="15" t="str">
         <f>画面API構成!C40</f>
         <v>カート追加を行うAPI</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:4">
-      <c r="A11" s="13" t="str">
+      <c r="A11" s="15" t="str">
         <f>画面API構成!B47</f>
         <v>カート更新API</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="15" t="str">
         <f>画面API構成!C47</f>
         <v>数量更新を行うAPI</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" ht="54" spans="1:4">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="15" t="str">
         <f>画面API構成!B48</f>
         <v>カート削除API</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="15" t="str">
         <f>画面API構成!C48</f>
         <v>カート内の商品削除を行うAPI</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" ht="162" spans="1:4">
-      <c r="A13" s="13" t="str">
+      <c r="A13" s="15" t="str">
         <f>画面API構成!B54</f>
         <v>注文登録API</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="15" t="str">
         <f>画面API構成!C54</f>
         <v>注文登録を行うAPI</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12048,7 +12060,7 @@
       <c r="C14" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12064,7 +12076,7 @@
       <c r="C15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12080,119 +12092,119 @@
       <c r="C16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" ht="278" customHeight="1" spans="1:4">
-      <c r="A17" s="13" t="str">
+      <c r="A17" s="15" t="str">
         <f>画面API構成!B94</f>
         <v>商品追加API</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="15" t="str">
         <f>画面API構成!C94</f>
         <v>商品追加を行うAPI</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" ht="246" customHeight="1" spans="1:4">
-      <c r="A18" s="13" t="str">
+      <c r="A18" s="15" t="str">
         <f>画面API構成!B91</f>
         <v>商品更新API</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="15" t="str">
         <f>画面API構成!C91</f>
         <v>商品更新を行うAPI</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:4">
-      <c r="A19" s="13" t="str">
+      <c r="A19" s="15" t="str">
         <f>画面API構成!B92</f>
         <v>商品削除API</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="15" t="str">
         <f>画面API構成!C92</f>
         <v>商品削除を行うAPI</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" ht="43" customHeight="1" spans="1:4">
-      <c r="A20" s="13" t="str">
+      <c r="A20" s="15" t="str">
         <f>画面API構成!B96</f>
         <v>カテゴリ追加API</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="15" t="str">
         <f>画面API構成!C96</f>
         <v>カテゴリ追加を行うAPI</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:4">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="15" t="str">
         <f>画面API構成!B97</f>
         <v>カテゴリ停止API</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="15" t="str">
         <f>画面API構成!C97</f>
         <v>カテゴリ停止API</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" ht="111" customHeight="1" spans="1:4">
-      <c r="A22" s="13" t="str">
+      <c r="A22" s="15" t="str">
         <f>画面API構成!B99</f>
         <v>注文履歴取得API</v>
       </c>
-      <c r="B22" s="13" t="str">
+      <c r="B22" s="15" t="str">
         <f>画面API構成!C99</f>
         <v>注文履歴取得を行うAPI</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:4">
-      <c r="A23" s="13" t="str">
+      <c r="A23" s="15" t="str">
         <f>画面API構成!B100</f>
         <v>注文履歴更新API</v>
       </c>
-      <c r="B23" s="13" t="str">
+      <c r="B23" s="15" t="str">
         <f>画面API構成!C100</f>
         <v>注文履歴の更新を行うAPI</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12207,7 +12219,7 @@
   <sheetPr/>
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -864,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -887,29 +887,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,14 +895,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,6 +917,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -954,10 +932,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,17 +953,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,6 +963,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1001,13 +1001,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1016,17 +1009,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1069,6 +1069,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1081,31 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,25 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,31 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,13 +1141,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,25 +1207,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,19 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,21 +1391,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1429,13 +1414,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,24 +1455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,6 +1472,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1495,145 +1495,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11831,8 +11831,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11937,18 +11937,18 @@
       </c>
     </row>
     <row r="7" ht="81" spans="1:4">
-      <c r="A7" s="15" t="str">
+      <c r="A7" s="13" t="str">
         <f>画面API構成!B32</f>
         <v>カテゴリー一覧取得API</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="13" t="str">
         <f>画面API構成!C32</f>
         <v>カテゴリー一覧を取得するAPI</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12145,34 +12145,34 @@
       </c>
     </row>
     <row r="20" ht="43" customHeight="1" spans="1:4">
-      <c r="A20" s="15" t="str">
+      <c r="A20" s="13" t="str">
         <f>画面API構成!B96</f>
         <v>カテゴリ追加API</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="13" t="str">
         <f>画面API構成!C96</f>
         <v>カテゴリ追加を行うAPI</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:4">
-      <c r="A21" s="15" t="str">
+      <c r="A21" s="13" t="str">
         <f>画面API構成!B97</f>
         <v>カテゴリ停止API</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="13" t="str">
         <f>画面API構成!C97</f>
         <v>カテゴリ停止API</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12984,7 +12984,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12945" activeTab="2"/>
+    <workbookView windowHeight="18345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -864,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -887,7 +887,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +949,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,6 +960,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,7 +986,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,92 +1022,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,7 +1069,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,13 +1159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,37 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,13 +1213,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,91 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,31 +1409,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,6 +1429,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1468,21 +1459,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1495,145 +1495,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10130,8 +10130,8 @@
   <sheetPr/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11831,8 +11831,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18345" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="12945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
     <t>商品画像URL1</t>
   </si>
   <si>
-    <t>goods_image_1</t>
+    <t>goods_image1</t>
   </si>
   <si>
     <t>IMAGE</t>
@@ -748,31 +748,31 @@
     <t>商品画像URL2</t>
   </si>
   <si>
-    <t>goods_image_2</t>
+    <t>goods_image2</t>
   </si>
   <si>
     <t>商品画像URL3</t>
   </si>
   <si>
-    <t>goods_image_3</t>
+    <t>goods_image3</t>
   </si>
   <si>
     <t>商品画像URL4</t>
   </si>
   <si>
-    <t>goods_image_4</t>
+    <t>goods_image4</t>
   </si>
   <si>
     <t>商品画像URL5,</t>
   </si>
   <si>
-    <t>goods_image_5</t>
+    <t>goods_image5</t>
   </si>
   <si>
     <t>商品画像URL6</t>
   </si>
   <si>
-    <t>goods_image_6</t>
+    <t>goods_image6</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -864,10 +864,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -887,6 +887,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -900,8 +907,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,22 +954,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -939,9 +961,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,32 +977,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,23 +991,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,6 +1017,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,7 +1069,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +1123,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,61 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,79 +1219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,6 +1390,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1405,15 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1425,6 +1425,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,15 +1459,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1495,145 +1495,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11832,7 +11832,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11921,18 +11921,18 @@
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:4">
-      <c r="A6" s="15" t="str">
+      <c r="A6" s="13" t="str">
         <f>画面API構成!B31</f>
         <v>商品一覧取得API</v>
       </c>
-      <c r="B6" s="15" t="str">
+      <c r="B6" s="13" t="str">
         <f>画面API構成!C31</f>
         <v>商品一覧情報を取得するAPI</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11953,18 +11953,18 @@
       </c>
     </row>
     <row r="8" ht="256.5" spans="1:4">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="13" t="str">
         <f>画面API構成!B38</f>
         <v>商品詳細API</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="13" t="str">
         <f>画面API構成!C38</f>
         <v>商品詳細情報を取得するAPI</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12097,50 +12097,50 @@
       </c>
     </row>
     <row r="17" ht="278" customHeight="1" spans="1:4">
-      <c r="A17" s="15" t="str">
+      <c r="A17" s="13" t="str">
         <f>画面API構成!B94</f>
         <v>商品追加API</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="13" t="str">
         <f>画面API構成!C94</f>
         <v>商品追加を行うAPI</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" ht="246" customHeight="1" spans="1:4">
-      <c r="A18" s="15" t="str">
+      <c r="A18" s="13" t="str">
         <f>画面API構成!B91</f>
         <v>商品更新API</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="13" t="str">
         <f>画面API構成!C91</f>
         <v>商品更新を行うAPI</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:4">
-      <c r="A19" s="15" t="str">
+      <c r="A19" s="13" t="str">
         <f>画面API構成!B92</f>
         <v>商品削除API</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="13" t="str">
         <f>画面API構成!C92</f>
         <v>商品削除を行うAPI</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12572,7 +12572,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>構築</t>
   </si>
@@ -387,6 +387,9 @@
   "購入回数": 0
  }
 ]</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
   <si>
     <t>[
@@ -814,6 +817,12 @@
     <t>cart</t>
   </si>
   <si>
+    <t>カートID</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
     <t>数量</t>
   </si>
   <si>
@@ -865,8 +874,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -894,13 +903,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -908,10 +910,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,47 +931,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +948,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,12 +970,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1006,11 +992,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,9 +1032,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,7 +1078,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,43 +1180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1216,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,115 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,11 +1399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,6 +1429,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1425,15 +1458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,10 +1479,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1466,24 +1488,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,22 +1504,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1519,121 +1528,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11173,21 +11182,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -11195,87 +11204,87 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -11507,21 +11516,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -11529,28 +11538,28 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -11831,8 +11840,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11893,31 +11902,30 @@
         <f>画面API構成!B23</f>
         <v>商品閲覧履歴取得API</v>
       </c>
-      <c r="B4" s="15" t="str">
-        <f>画面API構成!C23</f>
-        <v>商品閲覧履歴の一覧API</v>
+      <c r="B4" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="126" customHeight="1" spans="1:4">
-      <c r="A5" s="15" t="str">
+      <c r="A5" s="13" t="str">
         <f>画面API構成!B24</f>
         <v>カート一覧取得API</v>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="13" t="str">
         <f>画面API構成!C24</f>
         <v>カートの一覧API</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>119</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:4">
@@ -11930,10 +11938,10 @@
         <v>商品一覧情報を取得するAPI</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:4">
@@ -11946,10 +11954,10 @@
         <v>カテゴリー一覧を取得するAPI</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="256.5" spans="1:4">
@@ -11962,10 +11970,10 @@
         <v>商品詳細情報を取得するAPI</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" ht="59" customHeight="1" spans="1:4">
@@ -11981,55 +11989,55 @@
         <v>115</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:4">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="13" t="str">
         <f>画面API構成!B40</f>
         <v>カート追加API</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="13" t="str">
         <f>画面API構成!C40</f>
         <v>カート追加を行うAPI</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="11" ht="54" spans="1:4">
-      <c r="A11" s="15" t="str">
+      <c r="A11" s="13" t="str">
         <f>画面API構成!B47</f>
         <v>カート更新API</v>
       </c>
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="13" t="str">
         <f>画面API構成!C47</f>
         <v>数量更新を行うAPI</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="12" ht="54" spans="1:4">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="13" t="str">
         <f>画面API構成!B48</f>
         <v>カート削除API</v>
       </c>
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="13" t="str">
         <f>画面API構成!C48</f>
         <v>カート内の商品削除を行うAPI</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>124</v>
+      <c r="C12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="162" spans="1:4">
@@ -12042,10 +12050,10 @@
         <v>注文登録を行うAPI</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" ht="68" customHeight="1" spans="1:4">
@@ -12058,10 +12066,10 @@
         <v>アカウント追加を行う</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:4">
@@ -12077,7 +12085,7 @@
         <v>115</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" ht="84" customHeight="1" spans="1:4">
@@ -12090,10 +12098,10 @@
         <v>アカウント編集を行うAPI</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" ht="278" customHeight="1" spans="1:4">
@@ -12106,10 +12114,10 @@
         <v>商品追加を行うAPI</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" ht="246" customHeight="1" spans="1:4">
@@ -12122,10 +12130,10 @@
         <v>商品更新を行うAPI</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" ht="54" spans="1:4">
@@ -12138,10 +12146,10 @@
         <v>商品削除を行うAPI</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" ht="43" customHeight="1" spans="1:4">
@@ -12154,10 +12162,10 @@
         <v>カテゴリ追加を行うAPI</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:4">
@@ -12170,10 +12178,10 @@
         <v>カテゴリ停止API</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="111" customHeight="1" spans="1:4">
@@ -12186,10 +12194,10 @@
         <v>注文履歴取得を行うAPI</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:4">
@@ -12202,10 +12210,10 @@
         <v>注文履歴の更新を行うAPI</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -12233,21 +12241,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -12255,123 +12263,123 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -12585,21 +12593,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -12607,243 +12615,243 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -12984,7 +12992,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12997,21 +13005,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -13019,63 +13027,63 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -13319,21 +13327,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -13341,75 +13349,75 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -13647,21 +13655,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -13669,73 +13677,73 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -13960,7 +13968,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13973,21 +13981,21 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
@@ -13995,59 +14003,67 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>223</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6"/>
@@ -14261,7 +14277,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D12 D10:D11 D13:D16 D17:D22 D23:D26 D27:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D11 D12 D13:D16 D17:D22 D23:D26 D27:D45">
       <formula1>"INT,DATE,VARCHAR,IMAGE,BOOL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -873,9 +873,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -902,8 +902,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,7 +912,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,15 +925,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,8 +948,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -955,46 +964,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,7 +979,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1024,16 +1017,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,13 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +1090,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,73 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,13 +1186,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,31 +1240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,6 +1415,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1432,17 +1447,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,17 +1468,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,18 +1483,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,25 +1504,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,91 +1531,79 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1627,22 +1615,34 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11840,8 +11840,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11898,17 +11898,17 @@
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:4">
-      <c r="A4" s="15" t="str">
+      <c r="A4" s="13" t="str">
         <f>画面API構成!B23</f>
         <v>商品閲覧履歴取得API</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11977,18 +11977,18 @@
       </c>
     </row>
     <row r="9" ht="59" customHeight="1" spans="1:4">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="13" t="str">
         <f>画面API構成!B39</f>
         <v>商品閲覧履歴追加API</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="13" t="str">
         <f>画面API構成!C39</f>
         <v>商品閲覧履歴追加を行うAPI</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>125</v>
       </c>
     </row>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12945" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="12945" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>構築</t>
   </si>
@@ -805,6 +805,12 @@
     <t>goods_purchase</t>
   </si>
   <si>
+    <t>商品購入ID</t>
+  </si>
+  <si>
+    <t>goods_purchase_id</t>
+  </si>
+  <si>
     <t>購入回数</t>
   </si>
   <si>
@@ -873,10 +879,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -895,24 +901,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,31 +916,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,21 +935,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,7 +955,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,11 +992,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,16 +1022,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,7 +1084,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1192,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,25 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,97 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,36 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1468,6 +1444,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1487,15 +1502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1504,145 +1510,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11182,10 +11188,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11204,10 +11210,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>148</v>
@@ -11240,10 +11246,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>148</v>
@@ -11252,24 +11258,24 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>148</v>
@@ -11516,10 +11522,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11538,10 +11544,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>148</v>
@@ -11550,16 +11556,16 @@
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -11840,8 +11846,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -13641,8 +13647,8 @@
   <sheetPr/>
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13677,10 +13683,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>148</v>
@@ -13689,10 +13695,10 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>148</v>
@@ -13701,10 +13707,10 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>148</v>
@@ -13713,22 +13719,22 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>165</v>
@@ -13737,20 +13743,26 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5">
@@ -13981,10 +13993,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -14003,10 +14015,10 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>148</v>
@@ -14041,10 +14053,10 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>148</v>
@@ -14053,16 +14065,16 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:5">

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12945" firstSheet="2" activeTab="7"/>
+    <workbookView windowHeight="18345" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="商品閲覧テーブル" sheetId="8" r:id="rId7"/>
     <sheet name="商品購入テーブル" sheetId="9" r:id="rId8"/>
     <sheet name="カートテーブル" sheetId="11" r:id="rId9"/>
-    <sheet name="注文履歴テーブル" sheetId="12" r:id="rId10"/>
-    <sheet name="注文状態テーブル" sheetId="13" r:id="rId11"/>
+    <sheet name="注文テーブル" sheetId="12" r:id="rId10"/>
+    <sheet name="注文詳細テーブル" sheetId="14" r:id="rId11"/>
+    <sheet name="注文状態テーブル" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>構築</t>
   </si>
@@ -476,23 +477,17 @@
   </si>
   <si>
     <t>アカウントID(任意)
-郵便番号(任意)
-住所(任意)
+郵便番号(必須)
+住所(必須)
 商品ID(必須)
 数量(必須)
-合計金額(必須)
-振り込み決済(true,false)
-クレジットカード決済(true,false)
-クレジットカード番号
-有効期限
-クレジットカード名
-CVSコード</t>
+合計金額(必須)</t>
   </si>
   <si>
     <t>{
  "APIレスポンス結果": "OK or NG",
  "APIエラーメッセージ": "NGの場合、メッセージを出力",
- "振り込み番号":"リクエストの振り込み決済がtrueの場合のみ、出力"
+ "振り込み番号":""
 }</t>
   </si>
   <si>
@@ -844,22 +839,52 @@
     <t>商品ごとの数量 * 金額　が格納</t>
   </si>
   <si>
-    <t>注文履歴</t>
-  </si>
-  <si>
-    <t>order_history</t>
-  </si>
-  <si>
-    <t>注文履歴ID</t>
-  </si>
-  <si>
-    <t>order_history_id</t>
+    <t>注文</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>注文ID</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>注文詳細テーブルの数量合計金額の合計が格納</t>
+  </si>
+  <si>
+    <t>振込番号</t>
+  </si>
+  <si>
+    <t>transfer_number</t>
+  </si>
+  <si>
+    <t>注文履歴IDと同一値</t>
   </si>
   <si>
     <t>注文状態</t>
   </si>
   <si>
     <t>order_state</t>
+  </si>
+  <si>
+    <t>注文詳細</t>
+  </si>
+  <si>
+    <t>order_details</t>
+  </si>
+  <si>
+    <t>注文詳細ID</t>
+  </si>
+  <si>
+    <t>order_details_id</t>
+  </si>
+  <si>
+    <t>quantity_amount</t>
   </si>
   <si>
     <t>注文状態名称</t>
@@ -879,10 +904,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -901,11 +926,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,22 +948,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -947,7 +965,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -955,14 +973,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,23 +996,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,30 +1040,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,120 +1109,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1210,13 +1121,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,37 +1271,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,6 +1430,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1424,7 +1458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,6 +1493,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1476,29 +1519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,145 +1535,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,10 +1726,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11175,7 +11200,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B12"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -11234,31 +11259,31 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>227</v>
@@ -11267,37 +11292,45 @@
         <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5">
@@ -11494,7 +11527,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D11 D12 D13:D16 D17:D22 D23:D26 D27:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17:D22 D23:D26 D27:D45">
       <formula1>"INT,DATE,VARCHAR,IMAGE,BOOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11522,10 +11555,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11544,28 +11577,356 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E6" s="7"/>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17:D22 D23:D26 D27:D45">
+      <formula1>"INT,DATE,VARCHAR,IMAGE,BOOL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
     <row r="7" ht="65" customHeight="1" spans="2:5">
       <c r="B7" s="6" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -11846,8 +12207,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11888,18 +12249,18 @@
       </c>
     </row>
     <row r="3" ht="108" spans="1:4">
-      <c r="A3" s="15" t="str">
+      <c r="A3" s="13" t="str">
         <f>画面API構成!B22</f>
         <v>購入履歴取得API</v>
       </c>
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="13" t="str">
         <f>画面API構成!C22</f>
         <v>購入履歴の一覧API</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12046,7 +12407,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" ht="162" spans="1:4">
+    <row r="13" ht="117" customHeight="1" spans="1:4">
       <c r="A13" s="15" t="str">
         <f>画面API構成!B54</f>
         <v>注文登録API</v>
@@ -12055,10 +12416,10 @@
         <f>画面API構成!C54</f>
         <v>注文登録を行うAPI</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12202,7 +12563,7 @@
       <c r="C22" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12215,10 +12576,10 @@
         <f>画面API構成!C100</f>
         <v>注文履歴の更新を行うAPI</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12234,7 +12595,7 @@
   <dimension ref="B3:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13647,7 +14008,7 @@
   <sheetPr/>
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/勉強/開発.xlsx
+++ b/勉強/開発.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18345" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="12945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面API構成" sheetId="1" r:id="rId1"/>
@@ -905,9 +905,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -933,18 +933,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,9 +956,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,7 +988,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,36 +997,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,7 +1018,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,17 +1054,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,25 +1109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,13 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,7 +1163,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,13 +1241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,91 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,6 +1463,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1489,15 +1498,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,22 +1535,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1559,43 +1559,43 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1604,80 +1604,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,12 +1725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10345,49 +10339,49 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="15">
         <v>1</v>
       </c>
@@ -10399,12 +10393,12 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="15">
@@ -10412,14 +10406,14 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="15">
@@ -10430,14 +10424,14 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15">
@@ -10448,14 +10442,14 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="15">
@@ -10466,12 +10460,12 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="15">
@@ -10488,25 +10482,25 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="15">
@@ -10517,14 +10511,14 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="15">
@@ -10541,25 +10535,25 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E38" s="15">
@@ -10570,14 +10564,14 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="15">
@@ -10588,14 +10582,14 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="15">
@@ -10612,25 +10606,25 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="15">
@@ -10641,14 +10635,14 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="15">
@@ -10659,14 +10653,14 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="15">
@@ -10683,12 +10677,12 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="15">
@@ -10696,14 +10690,14 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="19" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="15">
@@ -10714,14 +10708,14 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E55" s="15">
@@ -10738,28 +10732,28 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="22">
         <v>5</v>
       </c>
       <c r="F61" t="s">
@@ -10773,12 +10767,12 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E66" s="15">
@@ -10786,14 +10780,14 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="15">
@@ -10804,49 +10798,49 @@
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="15">
         <f>SUM(E66:E67)</f>
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E73" s="15">
@@ -10863,12 +10857,12 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="15">
@@ -10876,23 +10870,23 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="23"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E80" s="15">
@@ -10903,14 +10897,14 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="19"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="15">
         <v>5</v>
       </c>
@@ -10922,12 +10916,12 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E86" s="15">
@@ -10935,25 +10929,25 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="20"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="15">
         <v>5</v>
       </c>
@@ -10962,25 +10956,25 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E90" s="15">
@@ -10991,14 +10985,14 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D91" s="20"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="15">
         <v>4</v>
       </c>
@@ -11007,14 +11001,14 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20" t="s">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="20"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="15">
         <v>4</v>
       </c>
@@ -11023,12 +11017,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E93" s="15">
@@ -11036,14 +11030,14 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="15">
         <v>4</v>
       </c>
@@ -11052,12 +11046,12 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20" t="s">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E95" s="15">
@@ -11065,14 +11059,14 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="20"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="15">
         <v>4</v>
       </c>
@@ -11081,14 +11075,14 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="20"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="15">
         <v>4</v>
       </c>
@@ -11097,28 +11091,28 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E98" s="26">
+      <c r="E98" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="26">
+      <c r="D99" s="18"/>
+      <c r="E99" s="24">
         <v>5</v>
       </c>
       <c r="F99" t="s">
@@ -11126,15 +11120,15 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="20"/>
-      <c r="E100" s="26">
+      <c r="D100" s="18"/>
+      <c r="E100" s="24">
         <v>4</v>
       </c>
       <c r="F100" t="s">
@@ -11142,33 +11136,33 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="26"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20" t="s">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="26"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D103" s="20"/>
-      <c r="E103" s="26">
+      <c r="D103" s="18"/>
+      <c r="E103" s="24">
         <v>4</v>
       </c>
       <c r="F103" t="s">
@@ -11869,7 +11863,7 @@
   <sheetPr/>
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -12207,8 +12201,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -12408,18 +12402,18 @@
       </c>
     </row>
     <row r="13" ht="117" customHeight="1" spans="1:4">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="13" t="str">
         <f>画面API構成!B54</f>
         <v>注文登録API</v>
       </c>
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="13" t="str">
         <f>画面API構成!C54</f>
         <v>注文登録を行うAPI</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12552,34 +12546,34 @@
       </c>
     </row>
     <row r="22" ht="111" customHeight="1" spans="1:4">
-      <c r="A22" s="15" t="str">
+      <c r="A22" s="13" t="str">
         <f>画面API構成!B99</f>
         <v>注文履歴取得API</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="13" t="str">
         <f>画面API構成!C99</f>
         <v>注文履歴取得を行うAPI</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:4">
-      <c r="A23" s="15" t="str">
+      <c r="A23" s="13" t="str">
         <f>画面API構成!B100</f>
         <v>注文履歴更新API</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="13" t="str">
         <f>画面API構成!C100</f>
         <v>注文履歴の更新を行うAPI</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>125</v>
       </c>
     </row>
